--- a/数据整理/stocks/A股/深证主板/000650-仁和药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000650-仁和药业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.35</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.14</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3745</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.35</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.14</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.90</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.86</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4191</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.90</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.86</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000650-仁和药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000650-仁和药业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7256</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6381</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4452</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9007</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8529</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8122</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6583</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000650-仁和药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000650-仁和药业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1182,4 +1183,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6584</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3857</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>57.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3217</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1527</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9229</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3066</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000650-仁和药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000650-仁和药业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1505,4 +1506,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000650-仁和药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000650-仁和药业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1514,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,17 +1526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1545,14 +1566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.76</v>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9760</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1561,14 +1604,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.1</v>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8472</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1577,14 +1642,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.46</v>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>64.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6684</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1593,13 +1680,607 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4803</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3236</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0459</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0374</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8429</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4289</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3736</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3299</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3206</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.41</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000650-仁和药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000650-仁和药业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2179,7 +2180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2190,17 +2191,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2210,14 +2231,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.88</v>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2756</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2226,14 +2269,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8639</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.76</v>
       </c>
     </row>
     <row r="4">
@@ -2242,14 +2307,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.1</v>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6449</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2258,14 +2345,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.46</v>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1152</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2274,13 +2383,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0768</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9950</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>62.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8172</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.890000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.41</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000650-仁和药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000650-仁和药业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2540,7 +2541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2551,17 +2552,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2571,14 +2592,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.890000000000001</v>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2872</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2587,14 +2630,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.88</v>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6777</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2603,14 +2668,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6647</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.890000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>8.76</v>
+        <v>15.88</v>
       </c>
     </row>
     <row r="5">
@@ -2619,14 +2790,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>9.1</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="6">
@@ -2635,14 +2806,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>0.46</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="7">
@@ -2651,13 +2822,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.41</v>
       </c>
     </row>
